--- a/backtesting/gap_opening_long_straddle_report.xlsx
+++ b/backtesting/gap_opening_long_straddle_report.xlsx
@@ -794,7 +794,7 @@
         <v>-10.54999999999995</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>-0.724836825833044</v>
+        <v>-0.5182772562254656</v>
       </c>
     </row>
     <row r="4">
@@ -812,16 +812,16 @@
         <v>51690.05</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>825.7</v>
+        <v>749.15</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>578.95</v>
+        <v>617.2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1404.65</v>
+        <v>1366.35</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>51600</v>
+        <v>51700</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
@@ -832,28 +832,28 @@
         <v>51364.65</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>650</v>
+        <v>723.25</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1390</v>
+        <v>1413.25</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>-325.4000000000015</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>-85.70000000000005</v>
+        <v>-59.14999999999998</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>71.04999999999995</v>
+        <v>106.05</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>-14.65000000000009</v>
+        <v>46.89999999999998</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>-1.042964439540105</v>
+        <v>2.439823750045518</v>
       </c>
     </row>
     <row r="5">
@@ -871,16 +871,16 @@
         <v>51390.6</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>866</v>
+        <v>807.85</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>561.55</v>
+        <v>609.1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1427.55</v>
+        <v>1416.95</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>51300</v>
+        <v>51400</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -891,28 +891,28 @@
         <v>51544.25</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>899.95</v>
+        <v>807.85</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>504.35</v>
+        <v>580</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1404.3</v>
+        <v>1387.85</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>153.6500000000015</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>33.95000000000005</v>
+        <v>0</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>-57.19999999999993</v>
+        <v>-29.10000000000002</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>-23.24999999999989</v>
+        <v>-29.10000000000002</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>-1.628664495113999</v>
+        <v>-1.471249955761386</v>
       </c>
     </row>
     <row r="6">
@@ -971,7 +971,7 @@
         <v>17.84999999999991</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>1.345443581819545</v>
+        <v>0.959187511754744</v>
       </c>
     </row>
     <row r="7">
